--- a/ex1/results.xlsx
+++ b/ex1/results.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="השוואת ארכיטקטורות" sheetId="1" r:id="rId1"/>
+    <sheet name="השוואת ארכיטקטורות חדשה" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t># hidden layers</t>
   </si>
@@ -67,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,12 +147,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +222,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,11 +690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382083344"/>
-        <c:axId val="382083736"/>
+        <c:axId val="306978400"/>
+        <c:axId val="306978792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382083344"/>
+        <c:axId val="306978400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,12 +812,12 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382083736"/>
+        <c:crossAx val="306978792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382083736"/>
+        <c:axId val="306978792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +931,7 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382083344"/>
+        <c:crossAx val="306978400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1081,11 +1152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307032904"/>
-        <c:axId val="387558016"/>
+        <c:axId val="306981144"/>
+        <c:axId val="306976832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307032904"/>
+        <c:axId val="306981144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,12 +1274,12 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387558016"/>
+        <c:crossAx val="306976832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387558016"/>
+        <c:axId val="306976832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1397,825 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307032904"/>
+        <c:crossAx val="306981144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>results by number of neurons in layer - 1 hidden layer</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'השוואת ארכיטקטורות חדשה'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'השוואת ארכיטקטורות חדשה'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="361313728"/>
+        <c:axId val="361307848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="361313728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of neurons in each layer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361307848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="361307848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361313728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>results by number of neurons in layer - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> hidden layers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'השוואת ארכיטקטורות חדשה'!$B$10:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'השוואת ארכיטקטורות חדשה'!$C$10:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306974872"/>
+        <c:axId val="304986768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306974872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304986768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="304986768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306974872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1455,6 +2344,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1972,6 +2941,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2535,6 +4536,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="תרשים 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294716</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2841,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3022,4 +5088,238 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="A1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>128</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>256</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>512</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2048</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13">
+        <v>16</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>128</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>256</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>512</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11">
+        <v>128</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ex1/results.xlsx
+++ b/ex1/results.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="השוואת ארכיטקטורות" sheetId="1" r:id="rId1"/>
     <sheet name="השוואת ארכיטקטורות חדשה" sheetId="2" r:id="rId2"/>
+    <sheet name="השוואת עומק ארכיטקטורות" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t># hidden layers</t>
   </si>
@@ -27,6 +28,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>accuracy1</t>
+  </si>
+  <si>
+    <t>accuracy2</t>
+  </si>
+  <si>
+    <t>accuracy3</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -195,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +267,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5092,10 +5110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:C17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5105,7 +5123,7 @@
     <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +5134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -5127,7 +5145,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5138,7 +5156,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5149,7 +5167,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5171,7 +5189,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5182,7 +5200,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5193,7 +5211,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -5203,8 +5221,12 @@
       <c r="C9" s="16">
         <v>0.90700000000000003</v>
       </c>
+      <c r="D9" s="19">
+        <f>AVERAGE(C3:C9)</f>
+        <v>0.91342857142857148</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -5215,7 +5237,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -5226,7 +5248,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5237,7 +5259,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5248,7 +5270,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5259,7 +5281,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5270,7 +5292,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2</v>
       </c>
@@ -5279,6 +5301,10 @@
       </c>
       <c r="C16" s="18">
         <v>0.95299999999999996</v>
+      </c>
+      <c r="D16" s="19">
+        <f>AVERAGE(C10:C16)</f>
+        <v>0.94328571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5322,4 +5348,95 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E2" s="20">
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.93800000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.93</v>
+      </c>
+      <c r="C3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:D3)</f>
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.93</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.85266666666666657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ex1/results.xlsx
+++ b/ex1/results.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D653C50-F5D9-409A-975D-28D1B21C03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="השוואת ארכיטקטורות" sheetId="1" r:id="rId1"/>
     <sheet name="השוואת ארכיטקטורות חדשה" sheetId="2" r:id="rId2"/>
     <sheet name="השוואת עומק ארכיטקטורות" sheetId="3" r:id="rId3"/>
+    <sheet name="2 - השוואת ארכיטקטורות" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t># hidden layers</t>
   </si>
@@ -48,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -56,14 +67,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -71,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -206,12 +217,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +306,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +337,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
@@ -332,7 +381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -358,7 +406,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -450,6 +498,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4382-41C0-B70A-C4FED4116F62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -533,6 +586,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4382-41C0-B70A-C4FED4116F62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -616,6 +674,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4382-41C0-B70A-C4FED4116F62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -699,6 +762,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4382-41C0-B70A-C4FED4116F62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -763,7 +831,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -789,7 +856,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -827,7 +894,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306978792"/>
@@ -882,7 +949,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -908,7 +974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -946,7 +1012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306978400"/>
@@ -987,7 +1053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -999,7 +1065,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
@@ -1043,7 +1109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1069,7 +1134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1161,6 +1226,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB64-4878-A7A3-602D69360980}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1225,7 +1295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1251,7 +1320,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1289,7 +1358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306976832"/>
@@ -1348,7 +1417,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1374,7 +1442,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1412,7 +1480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306981144"/>
@@ -1453,7 +1521,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1465,7 +1533,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
@@ -1505,7 +1573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1531,7 +1598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1627,6 +1694,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FF0-4F5E-9714-30A8532CD7E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1690,7 +1762,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1716,7 +1787,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1754,7 +1825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361307848"/>
@@ -1809,7 +1880,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1835,7 +1905,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1873,7 +1943,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361313728"/>
@@ -1914,7 +1984,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1926,7 +1996,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
@@ -1979,7 +2049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2005,7 +2074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2101,6 +2170,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-374B-4305-8383-A0DED2ECBA56}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2168,7 +2242,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304986768"/>
@@ -2230,7 +2304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306974872"/>
@@ -2271,7 +2345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4523,7 +4597,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4553,7 +4633,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="תרשים 3"/>
+        <xdr:cNvPr id="4" name="תרשים 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4588,7 +4674,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4618,7 +4710,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvPr id="3" name="תרשים 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4712,6 +4810,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4747,6 +4862,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4922,20 +5054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4957,7 +5089,7 @@
         <v>0.90905000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4968,7 +5100,7 @@
         <v>0.91378000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4979,7 +5111,7 @@
         <v>0.92432999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4990,7 +5122,7 @@
         <v>0.92396999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5001,7 +5133,7 @@
         <v>0.92615000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5012,7 +5144,7 @@
         <v>0.91923999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -5023,7 +5155,7 @@
         <v>0.91378000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -5034,7 +5166,7 @@
         <v>0.91669</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -5045,7 +5177,7 @@
         <v>0.92723999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -5056,7 +5188,7 @@
         <v>0.91632999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5067,7 +5199,7 @@
         <v>0.92688000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5078,7 +5210,7 @@
         <v>0.92469900000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5109,21 +5241,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -5145,7 +5277,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5156,7 +5288,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5167,7 +5299,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5178,7 +5310,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5189,7 +5321,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5200,7 +5332,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5211,7 +5343,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -5226,7 +5358,7 @@
         <v>0.91342857142857148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -5237,7 +5369,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -5248,7 +5380,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -5259,7 +5391,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5270,7 +5402,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5281,7 +5413,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5292,7 +5424,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>2</v>
       </c>
@@ -5307,7 +5439,7 @@
         <v>0.94328571428571428</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>5</v>
       </c>
@@ -5318,7 +5450,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <conditionalFormatting sqref="C1">
     <cfRule type="colorScale" priority="2">
@@ -5351,21 +5483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5400,7 +5532,7 @@
         <v>0.93800000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5418,7 +5550,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5439,4 +5571,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E8599-DB45-415F-AF2E-DC80A4EB9C53}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>128</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>256</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>512</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>128</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>256</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>512</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
+        <v>5</v>
+      </c>
+      <c r="B17" s="23">
+        <v>128</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>